--- a/Sprint#5/pruebas individuales Oscar/Log_pruebas_individuales_RF-46.xlsx
+++ b/Sprint#5/pruebas individuales Oscar/Log_pruebas_individuales_RF-46.xlsx
@@ -286,6 +286,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,7 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,7 +340,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E3BDE3-F723-40DB-9011-67A4D41D0A2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7E3BDE3-F723-40DB-9011-67A4D41D0A2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -379,6 +379,44 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>569619</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15047619" cy="7780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -712,23 +750,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -738,12 +776,12 @@
       <c r="B3" s="4">
         <v>18</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
@@ -764,23 +802,23 @@
       <c r="B5" s="12">
         <v>46</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,12 +841,12 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -863,7 +901,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
